--- a/Clean_data/Apparence_dans_les_résultats_de_recherche_all.xlsx
+++ b/Clean_data/Apparence_dans_les_résultats_de_recherche_all.xlsx
@@ -478,7 +478,7 @@
         <v>61981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.0072</v>
       </c>
       <c r="E2" t="n">
         <v>15.57</v>
@@ -502,7 +502,7 @@
         <v>16375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.0027</v>
       </c>
       <c r="E3" t="n">
         <v>62.47</v>
@@ -526,7 +526,7 @@
         <v>2593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.0015</v>
       </c>
       <c r="E4" t="n">
         <v>64.64</v>
@@ -550,7 +550,7 @@
         <v>702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.0014</v>
       </c>
       <c r="E5" t="n">
         <v>21.28</v>
@@ -598,7 +598,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>8.82</v>
+        <v>0.0882</v>
       </c>
       <c r="E7" t="n">
         <v>10.62</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>6449490</v>
       </c>
       <c r="D9" t="n">
-        <v>3.25</v>
+        <v>0.0325</v>
       </c>
       <c r="E9" t="n">
         <v>27.17</v>
@@ -670,7 +670,7 @@
         <v>610625</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="E10" t="n">
         <v>27.56</v>
@@ -694,7 +694,7 @@
         <v>11909</v>
       </c>
       <c r="D11" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="E11" t="n">
         <v>11.11</v>

--- a/Clean_data/Apparence_dans_les_résultats_de_recherche_all.xlsx
+++ b/Clean_data/Apparence_dans_les_résultats_de_recherche_all.xlsx
@@ -66,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -143,10 +137,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -494,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -514,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -534,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -554,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -574,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -594,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -614,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -634,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -654,7 +648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -674,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -694,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
